--- a/Metricas Escola.xlsx
+++ b/Metricas Escola.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giuli\Desktop\Sistemas de Informação\LPS\LP4\Giu e Rodrigo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giuli\Desktop\Sistemas de Informação\LPS\LP4\Escola\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E56F0BE-7F64-4087-B546-0CBF6EFAA345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F66843-3C18-445A-B2D0-76917CE528EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19440" yWindow="0" windowWidth="18960" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -93,10 +93,10 @@
     <t>Endereco</t>
   </si>
   <si>
-    <t>Historico</t>
+    <t>ESCOLA</t>
   </si>
   <si>
-    <t>ESCOLA</t>
+    <t>Coordenador</t>
   </si>
 </sst>
 </file>
@@ -311,7 +311,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -325,13 +325,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
@@ -340,42 +349,13 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -384,10 +364,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - Ênfase1" xfId="6" builtinId="30"/>
@@ -699,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA68"/>
+  <dimension ref="A1:Z65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y9" activeCellId="1" sqref="Y26 Y9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,11 +713,11 @@
       <c r="Z2" s="5"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
+      <c r="A3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
       <c r="Z3" s="5"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -754,11 +748,11 @@
       <c r="K4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
       <c r="R4" s="2" t="s">
         <v>0</v>
       </c>
@@ -823,35 +817,35 @@
       <c r="Q5" s="8"/>
       <c r="R5" s="3">
         <f>STANDARDIZE(D5,$D$22,$D$23)</f>
-        <v>0.47072342953422464</v>
+        <v>0.45683219257612856</v>
       </c>
       <c r="S5" s="3">
         <f>STANDARDIZE(E5,$D$22,$D$23)</f>
-        <v>-1.6213807017289952</v>
+        <v>-1.8273287703045147</v>
       </c>
       <c r="T5" s="3">
         <f>STANDARDIZE(F5,$D$22,$D$23)</f>
-        <v>-2.1444067345448001</v>
+        <v>-2.3983690110246756</v>
       </c>
       <c r="U5" s="3">
         <f t="shared" ref="U5:X14" si="0">STANDARDIZE(G5,$D$22,$D$23)</f>
-        <v>-1.6213807017289952</v>
+        <v>-1.8273287703045147</v>
       </c>
       <c r="V5" s="3">
         <f t="shared" si="0"/>
-        <v>4.1319056592448593</v>
+        <v>4.454113877617254</v>
       </c>
       <c r="W5" s="3">
         <f t="shared" si="0"/>
-        <v>-2.1444067345448001</v>
+        <v>-2.3983690110246756</v>
       </c>
       <c r="X5" s="3">
         <f>STANDARDIZE(J5,$D$22,$D$23)</f>
-        <v>2.5628275607974444</v>
-      </c>
-      <c r="Y5" s="18">
+        <v>2.7409931554567719</v>
+      </c>
+      <c r="Y5" s="24">
         <f>SUM(R5:X5)</f>
-        <v>-0.36611822297106222</v>
+        <v>-0.79945633700822594</v>
       </c>
       <c r="Z5" s="5"/>
     </row>
@@ -871,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1">
         <v>8</v>
@@ -884,7 +878,7 @@
       </c>
       <c r="K6" s="3">
         <f>SUM(D6:J6)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>16</v>
@@ -893,35 +887,35 @@
       <c r="Q6" s="8"/>
       <c r="R6" s="3">
         <f t="shared" ref="R6:R12" si="1">STANDARDIZE(D6,$D$22,$D$23)</f>
-        <v>0.47072342953422464</v>
+        <v>0.45683219257612856</v>
       </c>
       <c r="S6" s="3">
         <f t="shared" ref="S6:S14" si="2">STANDARDIZE(E6,$D$22,$D$23)</f>
-        <v>-2.1444067345448001</v>
+        <v>-2.3983690110246756</v>
       </c>
       <c r="T6" s="3">
         <f t="shared" ref="T6:T14" si="3">STANDARDIZE(F6,$D$22,$D$23)</f>
-        <v>-2.1444067345448001</v>
+        <v>-2.3983690110246756</v>
       </c>
       <c r="U6" s="3">
         <f t="shared" si="0"/>
-        <v>-2.1444067345448001</v>
+        <v>-1.8273287703045147</v>
       </c>
       <c r="V6" s="3">
         <f t="shared" si="0"/>
-        <v>2.0398015279816395</v>
+        <v>2.1699529147366112</v>
       </c>
       <c r="W6" s="3">
         <f t="shared" si="0"/>
-        <v>-2.1444067345448001</v>
+        <v>-2.3983690110246756</v>
       </c>
       <c r="X6" s="3">
         <f t="shared" si="0"/>
-        <v>-2.1444067345448001</v>
+        <v>-2.3983690110246756</v>
       </c>
       <c r="Y6" s="1">
         <f t="shared" ref="Y6:Y14" si="4">SUM(R6:X6)</f>
-        <v>-8.2115087152081365</v>
+        <v>-8.7940197070904773</v>
       </c>
       <c r="Z6" s="5"/>
     </row>
@@ -931,7 +925,7 @@
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="2">
+      <c r="D7" s="25">
         <v>5</v>
       </c>
       <c r="E7" s="1">
@@ -963,35 +957,35 @@
       <c r="Q7" s="8"/>
       <c r="R7" s="3">
         <f t="shared" si="1"/>
-        <v>0.47072342953422464</v>
+        <v>0.45683219257612856</v>
       </c>
       <c r="S7" s="3">
         <f t="shared" si="2"/>
-        <v>-2.1444067345448001</v>
+        <v>-2.3983690110246756</v>
       </c>
       <c r="T7" s="3">
         <f t="shared" si="3"/>
-        <v>-2.1444067345448001</v>
+        <v>-2.3983690110246756</v>
       </c>
       <c r="U7" s="3">
         <f t="shared" si="0"/>
-        <v>-0.57532863609738527</v>
+        <v>-0.68524828886419309</v>
       </c>
       <c r="V7" s="3">
         <f t="shared" si="0"/>
-        <v>4.1319056592448593</v>
+        <v>4.454113877617254</v>
       </c>
       <c r="W7" s="3">
         <f t="shared" si="0"/>
-        <v>-2.1444067345448001</v>
+        <v>-2.3983690110246756</v>
       </c>
       <c r="X7" s="3">
         <f t="shared" si="0"/>
-        <v>-2.1444067345448001</v>
+        <v>-2.3983690110246756</v>
       </c>
       <c r="Y7" s="1">
         <f t="shared" si="4"/>
-        <v>-4.5503264854975018</v>
+        <v>-5.3677782627695123</v>
       </c>
       <c r="Z7" s="5"/>
     </row>
@@ -1008,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -1024,7 +1018,7 @@
       </c>
       <c r="K8" s="3">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O8" s="8" t="s">
         <v>18</v>
@@ -1033,35 +1027,35 @@
       <c r="Q8" s="8"/>
       <c r="R8" s="3">
         <f t="shared" si="1"/>
-        <v>0.47072342953422464</v>
+        <v>0.45683219257612856</v>
       </c>
       <c r="S8" s="3">
         <f t="shared" si="2"/>
-        <v>-1.6213807017289952</v>
+        <v>-1.8273287703045147</v>
       </c>
       <c r="T8" s="3">
         <f t="shared" si="3"/>
-        <v>-2.1444067345448001</v>
+        <v>-1.8273287703045147</v>
       </c>
       <c r="U8" s="3">
         <f t="shared" si="0"/>
-        <v>-1.6213807017289952</v>
+        <v>-1.8273287703045147</v>
       </c>
       <c r="V8" s="3">
         <f t="shared" si="0"/>
-        <v>4.1319056592448593</v>
+        <v>4.454113877617254</v>
       </c>
       <c r="W8" s="3">
         <f t="shared" si="0"/>
-        <v>-2.1444067345448001</v>
+        <v>-2.3983690110246756</v>
       </c>
       <c r="X8" s="3">
         <f t="shared" si="0"/>
-        <v>2.5628275607974444</v>
-      </c>
-      <c r="Y8" s="18">
+        <v>2.7409931554567719</v>
+      </c>
+      <c r="Y8" s="24">
         <f t="shared" si="4"/>
-        <v>-0.36611822297106222</v>
+        <v>-0.2284160962880657</v>
       </c>
       <c r="Z8" s="5"/>
     </row>
@@ -1072,7 +1066,7 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -1081,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -1094,7 +1088,7 @@
       </c>
       <c r="K9" s="3">
         <f>SUM(D9:J9)</f>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O9" s="8" t="s">
         <v>19</v>
@@ -1103,35 +1097,35 @@
       <c r="Q9" s="8"/>
       <c r="R9" s="3">
         <f t="shared" si="1"/>
-        <v>1.5167754951658345</v>
+        <v>1.0278724332962894</v>
       </c>
       <c r="S9" s="3">
         <f t="shared" si="2"/>
-        <v>-2.1444067345448001</v>
+        <v>-2.3983690110246756</v>
       </c>
       <c r="T9" s="3">
         <f t="shared" si="3"/>
-        <v>-2.1444067345448001</v>
+        <v>-2.3983690110246756</v>
       </c>
       <c r="U9" s="3">
         <f t="shared" si="0"/>
-        <v>-1.0983546689131902</v>
+        <v>-1.8273287703045147</v>
       </c>
       <c r="V9" s="3">
         <f t="shared" si="0"/>
-        <v>4.6549316920606643</v>
+        <v>4.454113877617254</v>
       </c>
       <c r="W9" s="3">
         <f t="shared" si="0"/>
-        <v>-2.1444067345448001</v>
+        <v>-2.3983690110246756</v>
       </c>
       <c r="X9" s="3">
         <f t="shared" si="0"/>
-        <v>-2.1444067345448001</v>
-      </c>
-      <c r="Y9" s="19">
+        <v>-2.3983690110246756</v>
+      </c>
+      <c r="Y9" s="1">
         <f t="shared" si="4"/>
-        <v>-3.5042744198658919</v>
+        <v>-5.9388185034896734</v>
       </c>
       <c r="Z9" s="5"/>
     </row>
@@ -1154,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -1164,7 +1158,7 @@
       </c>
       <c r="K10" s="3">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O10" s="8" t="s">
         <v>20</v>
@@ -1173,35 +1167,35 @@
       <c r="Q10" s="8"/>
       <c r="R10" s="3">
         <f t="shared" si="1"/>
-        <v>0.47072342953422464</v>
+        <v>0.45683219257612856</v>
       </c>
       <c r="S10" s="3">
         <f t="shared" si="2"/>
-        <v>-2.1444067345448001</v>
+        <v>-2.3983690110246756</v>
       </c>
       <c r="T10" s="3">
         <f t="shared" si="3"/>
-        <v>-2.1444067345448001</v>
+        <v>-2.3983690110246756</v>
       </c>
       <c r="U10" s="3">
         <f t="shared" si="0"/>
-        <v>-1.6213807017289952</v>
+        <v>-1.8273287703045147</v>
       </c>
       <c r="V10" s="3">
         <f t="shared" si="0"/>
-        <v>2.5628275607974444</v>
+        <v>3.3120333961769326</v>
       </c>
       <c r="W10" s="3">
         <f t="shared" si="0"/>
-        <v>-2.1444067345448001</v>
+        <v>-2.3983690110246756</v>
       </c>
       <c r="X10" s="3">
         <f t="shared" si="0"/>
-        <v>-2.1444067345448001</v>
+        <v>-2.3983690110246756</v>
       </c>
       <c r="Y10" s="1">
         <f t="shared" si="4"/>
-        <v>-7.1654566495765266</v>
+        <v>-7.6519392256501551</v>
       </c>
       <c r="Z10" s="5"/>
     </row>
@@ -1243,35 +1237,35 @@
       <c r="Q11" s="8"/>
       <c r="R11" s="3">
         <f t="shared" si="1"/>
-        <v>-2.1444067345448001</v>
+        <v>-2.3983690110246756</v>
       </c>
       <c r="S11" s="3">
         <f t="shared" si="2"/>
-        <v>-2.1444067345448001</v>
+        <v>-2.3983690110246756</v>
       </c>
       <c r="T11" s="3">
         <f t="shared" si="3"/>
-        <v>-1.0983546689131902</v>
+        <v>-1.256288529584354</v>
       </c>
       <c r="U11" s="3">
         <f t="shared" si="0"/>
-        <v>-1.6213807017289952</v>
+        <v>-1.8273287703045147</v>
       </c>
       <c r="V11" s="3">
         <f t="shared" si="0"/>
-        <v>-0.57532863609738527</v>
+        <v>-0.68524828886419309</v>
       </c>
       <c r="W11" s="3">
         <f t="shared" si="0"/>
-        <v>-2.1444067345448001</v>
+        <v>-2.3983690110246756</v>
       </c>
       <c r="X11" s="3">
         <f t="shared" si="0"/>
-        <v>-2.1444067345448001</v>
+        <v>-2.3983690110246756</v>
       </c>
       <c r="Y11" s="1">
         <f t="shared" si="4"/>
-        <v>-11.872690944918771</v>
+        <v>-13.362341632851763</v>
       </c>
       <c r="Z11" s="5"/>
     </row>
@@ -1313,35 +1307,35 @@
       <c r="Q12" s="8"/>
       <c r="R12" s="3">
         <f t="shared" si="1"/>
-        <v>-0.57532863609738527</v>
+        <v>-0.68524828886419309</v>
       </c>
       <c r="S12" s="3">
         <f t="shared" si="2"/>
-        <v>-2.1444067345448001</v>
+        <v>-2.3983690110246756</v>
       </c>
       <c r="T12" s="3">
         <f t="shared" si="3"/>
-        <v>-2.1444067345448001</v>
+        <v>-2.3983690110246756</v>
       </c>
       <c r="U12" s="3">
         <f t="shared" si="0"/>
-        <v>-2.1444067345448001</v>
+        <v>-2.3983690110246756</v>
       </c>
       <c r="V12" s="3">
         <f t="shared" si="0"/>
-        <v>1.5167754951658345</v>
+        <v>1.5989126740164501</v>
       </c>
       <c r="W12" s="3">
         <f t="shared" si="0"/>
-        <v>-2.1444067345448001</v>
+        <v>-2.3983690110246756</v>
       </c>
       <c r="X12" s="3">
         <f t="shared" si="0"/>
-        <v>-2.1444067345448001</v>
+        <v>-2.3983690110246756</v>
       </c>
       <c r="Y12" s="1">
         <f t="shared" si="4"/>
-        <v>-9.7805868136555514</v>
+        <v>-11.07818066997112</v>
       </c>
       <c r="Z12" s="5"/>
     </row>
@@ -1369,7 +1363,7 @@
       <c r="I13" s="1">
         <v>0</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="23">
         <v>0</v>
       </c>
       <c r="K13" s="3">
@@ -1383,112 +1377,112 @@
       <c r="Q13" s="8"/>
       <c r="R13" s="3">
         <f t="shared" ref="R13:R14" si="6">STANDARDIZE(D13,$D$22,$D$23)</f>
-        <v>-0.57532863609738527</v>
+        <v>-0.68524828886419309</v>
       </c>
       <c r="S13" s="3">
         <f t="shared" si="2"/>
-        <v>-2.1444067345448001</v>
+        <v>-2.3983690110246756</v>
       </c>
       <c r="T13" s="3">
         <f t="shared" si="3"/>
-        <v>-2.1444067345448001</v>
+        <v>-2.3983690110246756</v>
       </c>
       <c r="U13" s="3">
         <f t="shared" si="0"/>
-        <v>-2.1444067345448001</v>
+        <v>-2.3983690110246756</v>
       </c>
       <c r="V13" s="3">
         <f t="shared" si="0"/>
-        <v>3.6088796264290544</v>
+        <v>3.8830736368970937</v>
       </c>
       <c r="W13" s="3">
         <f t="shared" si="0"/>
-        <v>-2.1444067345448001</v>
+        <v>-2.3983690110246756</v>
       </c>
       <c r="X13" s="3">
         <f t="shared" si="0"/>
-        <v>-2.1444067345448001</v>
+        <v>-2.3983690110246756</v>
       </c>
       <c r="Y13" s="1">
         <f t="shared" si="4"/>
-        <v>-7.6884826823923316</v>
+        <v>-8.7940197070904773</v>
       </c>
       <c r="Z13" s="5"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="3">
         <f t="shared" si="6"/>
-        <v>-0.57532863609738527</v>
+        <v>0.45683219257612856</v>
       </c>
       <c r="S14" s="3">
         <f t="shared" si="2"/>
-        <v>-2.1444067345448001</v>
+        <v>-1.8273287703045147</v>
       </c>
       <c r="T14" s="3">
         <f t="shared" si="3"/>
-        <v>-2.1444067345448001</v>
+        <v>-2.3983690110246756</v>
       </c>
       <c r="U14" s="3">
         <f t="shared" si="0"/>
-        <v>-1.0983546689131902</v>
+        <v>-2.3983690110246756</v>
       </c>
       <c r="V14" s="3">
         <f t="shared" si="0"/>
-        <v>0.99374946235002959</v>
+        <v>7.3093150812180587</v>
       </c>
       <c r="W14" s="3">
         <f t="shared" si="0"/>
-        <v>-2.1444067345448001</v>
+        <v>-2.3983690110246756</v>
       </c>
       <c r="X14" s="3">
         <f t="shared" si="0"/>
-        <v>-2.1444067345448001</v>
+        <v>2.1699529147366112</v>
       </c>
       <c r="Y14" s="1">
         <f t="shared" si="4"/>
-        <v>-9.2575607808397464</v>
+        <v>0.91366438515225701</v>
       </c>
       <c r="Z14" s="5"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1497,23 +1491,16 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="6"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
       <c r="Y15" s="4"/>
       <c r="Z15" s="5"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1521,23 +1508,16 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
       <c r="Y16" s="4"/>
       <c r="Z16" s="5"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1545,23 +1525,16 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
       <c r="Y17" s="4"/>
       <c r="Z17" s="5"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1569,23 +1542,16 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
       <c r="Y18" s="4"/>
       <c r="Z18" s="5"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -1593,16 +1559,9 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
       <c r="Y19" s="4"/>
       <c r="Z19" s="5"/>
     </row>
@@ -1610,11 +1569,11 @@
       <c r="Z20" s="5"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="O21" s="7" t="s">
+      <c r="O21" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
       <c r="R21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1642,30 +1601,30 @@
       <c r="Z21" s="5"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="3">
         <f>AVERAGE(D5:D14)</f>
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="E22" s="3">
         <f>AVERAGE(E5:E14)</f>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" ref="E22:K22" si="7">AVERAGE(F5:F14)</f>
-        <v>0.2</v>
+        <f t="shared" ref="F22:K22" si="7">AVERAGE(F5:F14)</f>
+        <v>0.3</v>
       </c>
       <c r="G22" s="3">
         <f t="shared" si="7"/>
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="7"/>
-        <v>9.3000000000000007</v>
+        <v>10.4</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="7"/>
@@ -1673,11 +1632,11 @@
       </c>
       <c r="J22" s="3">
         <f t="shared" si="7"/>
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="K22" s="3">
         <f t="shared" si="7"/>
-        <v>16.7</v>
+        <v>18.7</v>
       </c>
       <c r="O22" s="8" t="s">
         <v>15</v>
@@ -1685,76 +1644,76 @@
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
       <c r="R22" s="3">
-        <f>(D5-$D$24)/($D$25-$D$24)</f>
-        <v>0.7142857142857143</v>
+        <f t="shared" ref="R22:X22" si="8">(D5-$D$24)/($D$25-$D$24)</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="S22" s="3">
-        <f>(E5-$D$24)/($D$25-$D$24)</f>
-        <v>0.14285714285714285</v>
+        <f t="shared" si="8"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="T22" s="3">
-        <f>(F5-$D$24)/($D$25-$D$24)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U22" s="3">
-        <f>(G5-$D$24)/($D$25-$D$24)</f>
-        <v>0.14285714285714285</v>
+        <f t="shared" si="8"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="V22" s="3">
-        <f>(H5-$D$24)/($D$25-$D$24)</f>
-        <v>1.7142857142857142</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="W22" s="3">
-        <f>(I5-$D$24)/($D$25-$D$24)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X22" s="3">
-        <f>(J5-$D$24)/($D$25-$D$24)</f>
-        <v>1.2857142857142858</v>
-      </c>
-      <c r="Y22" s="18">
+        <f t="shared" si="8"/>
+        <v>1.5</v>
+      </c>
+      <c r="Y22" s="24">
         <f>SUM(R22:X22)</f>
-        <v>4</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="Z22" s="5"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
       <c r="D23" s="3">
         <f>STDEV(D5:D14)</f>
-        <v>1.9119507199599983</v>
+        <v>1.751190071541826</v>
       </c>
       <c r="E23" s="3">
-        <f t="shared" ref="E23:K23" si="8">STDEV(E5:E14)</f>
-        <v>0.4216370213557839</v>
+        <f t="shared" ref="E23:K23" si="9">STDEV(E5:E14)</f>
+        <v>0.48304589153964794</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" si="8"/>
-        <v>0.63245553203367588</v>
+        <f t="shared" si="9"/>
+        <v>0.67494855771055284</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" si="8"/>
-        <v>0.99442892601175326</v>
+        <f t="shared" si="9"/>
+        <v>0.87559503577091313</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" si="8"/>
-        <v>3.2676869155073258</v>
+        <f t="shared" si="9"/>
+        <v>3.7475918193480537</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" si="8"/>
-        <v>3.7947331922020551</v>
+        <f t="shared" si="9"/>
+        <v>4.1952353926806065</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" si="8"/>
-        <v>7.528464503321894</v>
+        <f t="shared" si="9"/>
+        <v>8.393780766469634</v>
       </c>
       <c r="O23" s="8" t="s">
         <v>16</v>
@@ -1763,74 +1722,74 @@
       <c r="Q23" s="8"/>
       <c r="R23" s="3">
         <f>(D6-$D$24)/($D$25-$D$24)</f>
-        <v>0.7142857142857143</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="S23" s="3">
-        <f t="shared" ref="S23:X36" si="9">(E6-$D$24)/($D$25-$D$24)</f>
+        <f t="shared" ref="S23:X31" si="10">(E6-$D$24)/($D$25-$D$24)</f>
         <v>0</v>
       </c>
       <c r="T23" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U23" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="V23" s="3">
-        <f t="shared" si="9"/>
-        <v>1.1428571428571428</v>
+        <f t="shared" si="10"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="W23" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X23" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y23" s="1">
-        <f t="shared" ref="Y23:Y31" si="10">SUM(R23:X23)</f>
-        <v>1.8571428571428572</v>
+        <f t="shared" ref="Y23:Y31" si="11">SUM(R23:X23)</f>
+        <v>2.333333333333333</v>
       </c>
       <c r="Z23" s="5"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="3">
         <f>MIN(D5:D14)</f>
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <f t="shared" ref="E24:K24" si="11">MIN(E5:E14)</f>
+        <f t="shared" ref="E24:K24" si="12">MIN(E5:E14)</f>
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="O24" s="8" t="s">
@@ -1839,76 +1798,76 @@
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
       <c r="R24" s="3">
-        <f t="shared" ref="R24:R36" si="12">(D7-$D$24)/($D$25-$D$24)</f>
-        <v>0.7142857142857143</v>
+        <f t="shared" ref="R24:R31" si="13">(D7-$D$24)/($D$25-$D$24)</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="S24" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T24" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U24" s="3">
-        <f t="shared" si="9"/>
-        <v>0.42857142857142855</v>
+        <f t="shared" si="10"/>
+        <v>0.5</v>
       </c>
       <c r="V24" s="3">
-        <f t="shared" si="9"/>
-        <v>1.7142857142857142</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="W24" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X24" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y24" s="1">
-        <f t="shared" si="10"/>
-        <v>2.8571428571428568</v>
+        <f t="shared" si="11"/>
+        <v>3.3333333333333335</v>
       </c>
       <c r="Z24" s="5"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="3">
         <f>MAX(D5:D14)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25" s="3">
-        <f t="shared" ref="E25:K25" si="13">MAX(E5:E14)</f>
+        <f t="shared" ref="E25:J25" si="14">MAX(E5:E14)</f>
         <v>1</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" si="13"/>
-        <v>13</v>
+        <f t="shared" si="14"/>
+        <v>17</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="K25" s="3">
         <f>MAX(K5:K14)</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O25" s="8" t="s">
         <v>18</v>
@@ -1916,36 +1875,36 @@
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
       <c r="R25" s="3">
-        <f t="shared" si="12"/>
-        <v>0.7142857142857143</v>
+        <f t="shared" si="13"/>
+        <v>0.83333333333333337</v>
       </c>
       <c r="S25" s="3">
-        <f t="shared" si="9"/>
-        <v>0.14285714285714285</v>
+        <f t="shared" si="10"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="T25" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="U25" s="3">
-        <f t="shared" si="9"/>
-        <v>0.14285714285714285</v>
+        <f t="shared" si="10"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="V25" s="3">
-        <f t="shared" si="9"/>
-        <v>1.7142857142857142</v>
+        <f>(H8-$D$24)/($D$25-$D$24)</f>
+        <v>2</v>
       </c>
       <c r="W25" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X25" s="3">
-        <f t="shared" si="9"/>
-        <v>1.2857142857142858</v>
-      </c>
-      <c r="Y25" s="18">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="Y25" s="7">
+        <f t="shared" si="11"/>
+        <v>4.8333333333333339</v>
       </c>
       <c r="Z25" s="5"/>
     </row>
@@ -1956,36 +1915,36 @@
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="S26" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T26" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U26" s="3">
-        <f t="shared" si="9"/>
-        <v>0.2857142857142857</v>
+        <f t="shared" si="10"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="V26" s="3">
-        <f t="shared" si="9"/>
-        <v>1.8571428571428572</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="W26" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X26" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y26" s="19">
-        <f t="shared" si="10"/>
-        <v>3.1428571428571428</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="1">
+        <f t="shared" si="11"/>
+        <v>3.166666666666667</v>
       </c>
       <c r="Z26" s="5"/>
     </row>
@@ -1996,36 +1955,36 @@
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
       <c r="R27" s="3">
-        <f t="shared" si="12"/>
-        <v>0.7142857142857143</v>
+        <f t="shared" si="13"/>
+        <v>0.83333333333333337</v>
       </c>
       <c r="S27" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T27" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U27" s="3">
-        <f t="shared" si="9"/>
-        <v>0.14285714285714285</v>
+        <f t="shared" si="10"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="V27" s="3">
-        <f t="shared" si="9"/>
-        <v>1.2857142857142858</v>
+        <f t="shared" si="10"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="W27" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X27" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y27" s="1">
-        <f t="shared" si="10"/>
-        <v>2.1428571428571432</v>
+        <f t="shared" si="11"/>
+        <v>2.666666666666667</v>
       </c>
       <c r="Z27" s="5"/>
     </row>
@@ -2036,36 +1995,36 @@
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
       <c r="R28" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S28" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T28" s="3">
-        <f t="shared" si="9"/>
-        <v>0.2857142857142857</v>
+        <f t="shared" si="10"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="U28" s="3">
-        <f t="shared" si="9"/>
-        <v>0.14285714285714285</v>
+        <f t="shared" si="10"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="V28" s="3">
-        <f t="shared" si="9"/>
-        <v>0.42857142857142855</v>
+        <f t="shared" si="10"/>
+        <v>0.5</v>
       </c>
       <c r="W28" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X28" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y28" s="1">
-        <f t="shared" si="10"/>
-        <v>0.8571428571428571</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="Z28" s="5"/>
     </row>
@@ -2076,36 +2035,36 @@
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
       <c r="R29" s="3">
-        <f t="shared" si="12"/>
-        <v>0.42857142857142855</v>
+        <f t="shared" si="13"/>
+        <v>0.5</v>
       </c>
       <c r="S29" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T29" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U29" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V29" s="3">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>1.1666666666666667</v>
       </c>
       <c r="W29" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X29" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y29" s="1">
-        <f t="shared" si="10"/>
-        <v>1.4285714285714286</v>
+        <f t="shared" si="11"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="Z29" s="5"/>
     </row>
@@ -2116,1103 +2075,355 @@
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="3">
-        <f t="shared" si="12"/>
-        <v>0.42857142857142855</v>
+        <f t="shared" si="13"/>
+        <v>0.5</v>
       </c>
       <c r="S30" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T30" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U30" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V30" s="3">
-        <f t="shared" si="9"/>
-        <v>1.5714285714285714</v>
+        <f t="shared" si="10"/>
+        <v>1.8333333333333333</v>
       </c>
       <c r="W30" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X30" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y30" s="1">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="11"/>
+        <v>2.333333333333333</v>
       </c>
       <c r="Z30" s="5"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="O31" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="3">
-        <f t="shared" si="12"/>
-        <v>0.42857142857142855</v>
+        <f t="shared" si="13"/>
+        <v>0.83333333333333337</v>
       </c>
       <c r="S31" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="T31" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U31" s="3">
-        <f t="shared" si="9"/>
-        <v>0.2857142857142857</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="V31" s="3">
-        <f t="shared" si="9"/>
-        <v>0.8571428571428571</v>
+        <f t="shared" si="10"/>
+        <v>2.8333333333333335</v>
       </c>
       <c r="W31" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X31" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y31" s="1">
-        <f t="shared" si="10"/>
-        <v>1.5714285714285712</v>
+        <f t="shared" si="10"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="Y31" s="7">
+        <f t="shared" si="11"/>
+        <v>5.166666666666667</v>
       </c>
       <c r="Z31" s="5"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
       <c r="Z32" s="5"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="17"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
       <c r="Z33" s="5"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
-      <c r="W34" s="17"/>
-      <c r="X34" s="17"/>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
       <c r="Z34" s="5"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="17"/>
-      <c r="V35" s="17"/>
-      <c r="W35" s="17"/>
-      <c r="X35" s="17"/>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
       <c r="Z35" s="5"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="17"/>
-      <c r="U36" s="17"/>
-      <c r="V36" s="17"/>
-      <c r="W36" s="17"/>
-      <c r="X36" s="17"/>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
       <c r="Z36" s="5"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Z37" s="5"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
-      <c r="T38" s="29"/>
-      <c r="U38" s="29"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="29"/>
-      <c r="X38" s="29"/>
-      <c r="Y38" s="29"/>
-      <c r="Z38" s="29"/>
-      <c r="AA38" s="20"/>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="20"/>
-      <c r="T39" s="20"/>
-      <c r="U39" s="20"/>
-      <c r="V39" s="20"/>
-      <c r="W39" s="20"/>
-      <c r="X39" s="20"/>
-      <c r="Y39" s="20"/>
-      <c r="Z39" s="20"/>
-      <c r="AA39" s="20"/>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="20"/>
-      <c r="S40" s="20"/>
-      <c r="T40" s="20"/>
-      <c r="U40" s="20"/>
-      <c r="V40" s="20"/>
-      <c r="W40" s="20"/>
-      <c r="X40" s="20"/>
-      <c r="Y40" s="20"/>
-      <c r="Z40" s="20"/>
-      <c r="AA40" s="20"/>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="22"/>
-      <c r="S41" s="22"/>
-      <c r="T41" s="22"/>
-      <c r="U41" s="22"/>
-      <c r="V41" s="22"/>
-      <c r="W41" s="20"/>
-      <c r="X41" s="20"/>
-      <c r="Y41" s="20"/>
-      <c r="Z41" s="20"/>
-      <c r="AA41" s="20"/>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="20"/>
-      <c r="U42" s="20"/>
-      <c r="V42" s="20"/>
-      <c r="W42" s="20"/>
-      <c r="X42" s="20"/>
-      <c r="Y42" s="20"/>
-      <c r="Z42" s="20"/>
-      <c r="AA42" s="20"/>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="24"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="20"/>
-      <c r="S43" s="20"/>
-      <c r="T43" s="20"/>
-      <c r="U43" s="20"/>
-      <c r="V43" s="20"/>
-      <c r="W43" s="20"/>
-      <c r="X43" s="20"/>
-      <c r="Y43" s="20"/>
-      <c r="Z43" s="20"/>
-      <c r="AA43" s="20"/>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="24"/>
-      <c r="N44" s="24"/>
-      <c r="O44" s="24"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="20"/>
-      <c r="S44" s="20"/>
-      <c r="T44" s="20"/>
-      <c r="U44" s="20"/>
-      <c r="V44" s="20"/>
-      <c r="W44" s="20"/>
-      <c r="X44" s="20"/>
-      <c r="Y44" s="20"/>
-      <c r="Z44" s="20"/>
-      <c r="AA44" s="20"/>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="20"/>
-      <c r="S45" s="20"/>
-      <c r="T45" s="20"/>
-      <c r="U45" s="20"/>
-      <c r="V45" s="20"/>
-      <c r="W45" s="20"/>
-      <c r="X45" s="20"/>
-      <c r="Y45" s="20"/>
-      <c r="Z45" s="20"/>
-      <c r="AA45" s="20"/>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="24"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="20"/>
-      <c r="Q46" s="20"/>
-      <c r="R46" s="20"/>
-      <c r="S46" s="20"/>
-      <c r="T46" s="20"/>
-      <c r="U46" s="20"/>
-      <c r="V46" s="20"/>
-      <c r="W46" s="20"/>
-      <c r="X46" s="20"/>
-      <c r="Y46" s="20"/>
-      <c r="Z46" s="20"/>
-      <c r="AA46" s="20"/>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A47" s="24"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="20"/>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="20"/>
-      <c r="S47" s="20"/>
-      <c r="T47" s="20"/>
-      <c r="U47" s="20"/>
-      <c r="V47" s="20"/>
-      <c r="W47" s="20"/>
-      <c r="X47" s="20"/>
-      <c r="Y47" s="20"/>
-      <c r="Z47" s="20"/>
-      <c r="AA47" s="20"/>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="20"/>
-      <c r="S48" s="20"/>
-      <c r="T48" s="20"/>
-      <c r="U48" s="20"/>
-      <c r="V48" s="20"/>
-      <c r="W48" s="20"/>
-      <c r="X48" s="20"/>
-      <c r="Y48" s="20"/>
-      <c r="Z48" s="20"/>
-      <c r="AA48" s="20"/>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="24"/>
-      <c r="O49" s="24"/>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="20"/>
-      <c r="S49" s="20"/>
-      <c r="T49" s="20"/>
-      <c r="U49" s="20"/>
-      <c r="V49" s="20"/>
-      <c r="W49" s="20"/>
-      <c r="X49" s="20"/>
-      <c r="Y49" s="20"/>
-      <c r="Z49" s="20"/>
-      <c r="AA49" s="20"/>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="24"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="20"/>
-      <c r="Q50" s="20"/>
-      <c r="R50" s="20"/>
-      <c r="S50" s="20"/>
-      <c r="T50" s="20"/>
-      <c r="U50" s="20"/>
-      <c r="V50" s="20"/>
-      <c r="W50" s="20"/>
-      <c r="X50" s="20"/>
-      <c r="Y50" s="20"/>
-      <c r="Z50" s="20"/>
-      <c r="AA50" s="20"/>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="20"/>
-      <c r="R51" s="20"/>
-      <c r="S51" s="20"/>
-      <c r="T51" s="20"/>
-      <c r="U51" s="20"/>
-      <c r="V51" s="20"/>
-      <c r="W51" s="20"/>
-      <c r="X51" s="20"/>
-      <c r="Y51" s="20"/>
-      <c r="Z51" s="20"/>
-      <c r="AA51" s="20"/>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="24"/>
-      <c r="N52" s="24"/>
-      <c r="O52" s="24"/>
-      <c r="P52" s="20"/>
-      <c r="Q52" s="20"/>
-      <c r="R52" s="20"/>
-      <c r="S52" s="20"/>
-      <c r="T52" s="20"/>
-      <c r="U52" s="20"/>
-      <c r="V52" s="20"/>
-      <c r="W52" s="20"/>
-      <c r="X52" s="20"/>
-      <c r="Y52" s="20"/>
-      <c r="Z52" s="20"/>
-      <c r="AA52" s="20"/>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A53" s="20"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="20"/>
-      <c r="P53" s="20"/>
-      <c r="Q53" s="20"/>
-      <c r="R53" s="20"/>
-      <c r="S53" s="20"/>
-      <c r="T53" s="20"/>
-      <c r="U53" s="20"/>
-      <c r="V53" s="20"/>
-      <c r="W53" s="20"/>
-      <c r="X53" s="20"/>
-      <c r="Y53" s="20"/>
-      <c r="Z53" s="20"/>
-      <c r="AA53" s="20"/>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A54" s="20"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="25"/>
-      <c r="N54" s="25"/>
-      <c r="O54" s="25"/>
-      <c r="P54" s="22"/>
-      <c r="Q54" s="22"/>
-      <c r="R54" s="22"/>
-      <c r="S54" s="22"/>
-      <c r="T54" s="22"/>
-      <c r="U54" s="22"/>
-      <c r="V54" s="22"/>
-      <c r="W54" s="20"/>
-      <c r="X54" s="20"/>
-      <c r="Y54" s="20"/>
-      <c r="Z54" s="20"/>
-      <c r="AA54" s="20"/>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A55" s="26"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="24"/>
-      <c r="N55" s="24"/>
-      <c r="O55" s="24"/>
-      <c r="P55" s="20"/>
-      <c r="Q55" s="20"/>
-      <c r="R55" s="20"/>
-      <c r="S55" s="20"/>
-      <c r="T55" s="20"/>
-      <c r="U55" s="20"/>
-      <c r="V55" s="20"/>
-      <c r="W55" s="20"/>
-      <c r="X55" s="20"/>
-      <c r="Y55" s="20"/>
-      <c r="Z55" s="20"/>
-      <c r="AA55" s="20"/>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="20"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="24"/>
-      <c r="N56" s="24"/>
-      <c r="O56" s="24"/>
-      <c r="P56" s="20"/>
-      <c r="Q56" s="20"/>
-      <c r="R56" s="20"/>
-      <c r="S56" s="20"/>
-      <c r="T56" s="20"/>
-      <c r="U56" s="20"/>
-      <c r="V56" s="20"/>
-      <c r="W56" s="20"/>
-      <c r="X56" s="20"/>
-      <c r="Y56" s="20"/>
-      <c r="Z56" s="20"/>
-      <c r="AA56" s="20"/>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="20"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="24"/>
-      <c r="N57" s="24"/>
-      <c r="O57" s="24"/>
-      <c r="P57" s="20"/>
-      <c r="Q57" s="20"/>
-      <c r="R57" s="20"/>
-      <c r="S57" s="20"/>
-      <c r="T57" s="20"/>
-      <c r="U57" s="20"/>
-      <c r="V57" s="20"/>
-      <c r="W57" s="20"/>
-      <c r="X57" s="20"/>
-      <c r="Y57" s="20"/>
-      <c r="Z57" s="20"/>
-      <c r="AA57" s="20"/>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A58" s="24"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="20"/>
-      <c r="M58" s="24"/>
-      <c r="N58" s="24"/>
-      <c r="O58" s="24"/>
-      <c r="P58" s="20"/>
-      <c r="Q58" s="20"/>
-      <c r="R58" s="20"/>
-      <c r="S58" s="20"/>
-      <c r="T58" s="20"/>
-      <c r="U58" s="20"/>
-      <c r="V58" s="20"/>
-      <c r="W58" s="20"/>
-      <c r="X58" s="20"/>
-      <c r="Y58" s="20"/>
-      <c r="Z58" s="20"/>
-      <c r="AA58" s="20"/>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A59" s="20"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="24"/>
-      <c r="N59" s="24"/>
-      <c r="O59" s="24"/>
-      <c r="P59" s="20"/>
-      <c r="Q59" s="20"/>
-      <c r="R59" s="20"/>
-      <c r="S59" s="20"/>
-      <c r="T59" s="20"/>
-      <c r="U59" s="20"/>
-      <c r="V59" s="20"/>
-      <c r="W59" s="20"/>
-      <c r="X59" s="20"/>
-      <c r="Y59" s="20"/>
-      <c r="Z59" s="20"/>
-      <c r="AA59" s="20"/>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A60" s="20"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="24"/>
-      <c r="N60" s="24"/>
-      <c r="O60" s="24"/>
-      <c r="P60" s="20"/>
-      <c r="Q60" s="20"/>
-      <c r="R60" s="20"/>
-      <c r="S60" s="20"/>
-      <c r="T60" s="20"/>
-      <c r="U60" s="20"/>
-      <c r="V60" s="20"/>
-      <c r="W60" s="20"/>
-      <c r="X60" s="20"/>
-      <c r="Y60" s="20"/>
-      <c r="Z60" s="20"/>
-      <c r="AA60" s="20"/>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A61" s="20"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="20"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="24"/>
-      <c r="N61" s="24"/>
-      <c r="O61" s="24"/>
-      <c r="P61" s="20"/>
-      <c r="Q61" s="20"/>
-      <c r="R61" s="20"/>
-      <c r="S61" s="20"/>
-      <c r="T61" s="20"/>
-      <c r="U61" s="20"/>
-      <c r="V61" s="20"/>
-      <c r="W61" s="20"/>
-      <c r="X61" s="20"/>
-      <c r="Y61" s="20"/>
-      <c r="Z61" s="20"/>
-      <c r="AA61" s="20"/>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A62" s="20"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="20"/>
-      <c r="L62" s="20"/>
-      <c r="M62" s="24"/>
-      <c r="N62" s="24"/>
-      <c r="O62" s="24"/>
-      <c r="P62" s="20"/>
-      <c r="Q62" s="20"/>
-      <c r="R62" s="20"/>
-      <c r="S62" s="20"/>
-      <c r="T62" s="20"/>
-      <c r="U62" s="20"/>
-      <c r="V62" s="20"/>
-      <c r="W62" s="20"/>
-      <c r="X62" s="20"/>
-      <c r="Y62" s="20"/>
-      <c r="Z62" s="20"/>
-      <c r="AA62" s="20"/>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A63" s="20"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="20"/>
-      <c r="L63" s="20"/>
-      <c r="M63" s="24"/>
-      <c r="N63" s="24"/>
-      <c r="O63" s="24"/>
-      <c r="P63" s="20"/>
-      <c r="Q63" s="20"/>
-      <c r="R63" s="20"/>
-      <c r="S63" s="20"/>
-      <c r="T63" s="20"/>
-      <c r="U63" s="20"/>
-      <c r="V63" s="20"/>
-      <c r="W63" s="20"/>
-      <c r="X63" s="20"/>
-      <c r="Y63" s="20"/>
-      <c r="Z63" s="20"/>
-      <c r="AA63" s="20"/>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A64" s="20"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="20"/>
-      <c r="L64" s="20"/>
-      <c r="M64" s="24"/>
-      <c r="N64" s="24"/>
-      <c r="O64" s="24"/>
-      <c r="P64" s="20"/>
-      <c r="Q64" s="20"/>
-      <c r="R64" s="20"/>
-      <c r="S64" s="20"/>
-      <c r="T64" s="20"/>
-      <c r="U64" s="20"/>
-      <c r="V64" s="20"/>
-      <c r="W64" s="20"/>
-      <c r="X64" s="20"/>
-      <c r="Y64" s="20"/>
-      <c r="Z64" s="20"/>
-      <c r="AA64" s="20"/>
-    </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A65" s="20"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="20"/>
-      <c r="L65" s="20"/>
-      <c r="M65" s="24"/>
-      <c r="N65" s="24"/>
-      <c r="O65" s="24"/>
-      <c r="P65" s="20"/>
-      <c r="Q65" s="20"/>
-      <c r="R65" s="20"/>
-      <c r="S65" s="20"/>
-      <c r="T65" s="20"/>
-      <c r="U65" s="20"/>
-      <c r="V65" s="20"/>
-      <c r="W65" s="20"/>
-      <c r="X65" s="20"/>
-      <c r="Y65" s="20"/>
-      <c r="Z65" s="20"/>
-      <c r="AA65" s="20"/>
-    </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A66" s="20"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="20"/>
-      <c r="K66" s="20"/>
-      <c r="L66" s="20"/>
-      <c r="M66" s="20"/>
-      <c r="N66" s="20"/>
-      <c r="O66" s="20"/>
-      <c r="P66" s="20"/>
-      <c r="Q66" s="20"/>
-      <c r="R66" s="20"/>
-      <c r="S66" s="20"/>
-      <c r="T66" s="20"/>
-      <c r="U66" s="20"/>
-      <c r="V66" s="20"/>
-      <c r="W66" s="20"/>
-      <c r="X66" s="20"/>
-      <c r="Y66" s="20"/>
-      <c r="Z66" s="20"/>
-      <c r="AA66" s="20"/>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A67" s="20"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="20"/>
-      <c r="K67" s="20"/>
-      <c r="L67" s="20"/>
-      <c r="M67" s="20"/>
-      <c r="N67" s="20"/>
-      <c r="O67" s="20"/>
-      <c r="P67" s="20"/>
-      <c r="Q67" s="20"/>
-      <c r="R67" s="20"/>
-      <c r="S67" s="20"/>
-      <c r="T67" s="20"/>
-      <c r="U67" s="20"/>
-      <c r="V67" s="20"/>
-      <c r="W67" s="20"/>
-      <c r="X67" s="20"/>
-      <c r="Y67" s="20"/>
-      <c r="Z67" s="20"/>
-      <c r="AA67" s="20"/>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A68" s="20"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="20"/>
-      <c r="J68" s="20"/>
-      <c r="K68" s="20"/>
-      <c r="L68" s="20"/>
-      <c r="M68" s="20"/>
-      <c r="N68" s="20"/>
-      <c r="O68" s="20"/>
-      <c r="P68" s="20"/>
-      <c r="Q68" s="20"/>
-      <c r="R68" s="20"/>
-      <c r="S68" s="20"/>
-      <c r="T68" s="20"/>
-      <c r="U68" s="20"/>
-      <c r="V68" s="20"/>
-      <c r="W68" s="20"/>
-      <c r="X68" s="20"/>
-      <c r="Y68" s="20"/>
-      <c r="Z68" s="20"/>
-      <c r="AA68" s="20"/>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="M54" s="22"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A55" s="18"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A56" s="19"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+    </row>
+    <row r="65" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="M42:O42"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="M63:O63"/>
+    <mergeCell ref="M64:O64"/>
+    <mergeCell ref="M65:O65"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="M51:O51"/>
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="A43:C43"/>
@@ -3229,27 +2440,61 @@
     <mergeCell ref="A48:C48"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="A51:C51"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="M63:O63"/>
-    <mergeCell ref="M64:O64"/>
-    <mergeCell ref="M65:O65"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="M54:O54"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
